--- a/_sprints/sprint2/burndown/Sprint 2 Burndown Chart Version 1.xlsx
+++ b/_sprints/sprint2/burndown/Sprint 2 Burndown Chart Version 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\adventra-app\_sprints\sprint2\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E1001E-6111-4D78-A990-08DCE8E22289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45651CE4-4809-4104-A810-17B03CFF53E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
   </bookViews>
@@ -292,31 +292,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,64 +424,64 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.857142857142858</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.8</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.6</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.8</c:v>
+                  <c:v>23.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.2</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.399999999999999</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>12.600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.8</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>8.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3999999999999986</c:v>
+                  <c:v>6.2999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6000000000000014</c:v>
+                  <c:v>4.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7999999999999972</c:v>
+                  <c:v>2.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -618,7 +609,7 @@
         <c:axId val="1203719647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="36"/>
+          <c:max val="18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1652,7 +1643,7 @@
   <dimension ref="C6:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,11 +1674,11 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3">
-        <f>36 - (36*(D7-1)/20)</f>
-        <v>36</v>
+        <f>42 - (42*(D7-1)/20)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
@@ -1698,11 +1689,11 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3">
-        <f>36 - (36*(D8-1)/20)</f>
-        <v>34.200000000000003</v>
+        <f>42 - (42*(D8-1)/20)</f>
+        <v>39.9</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
@@ -1713,11 +1704,11 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3">
-        <f>36 - (36*(D9-1)/20)</f>
-        <v>32.4</v>
+        <f>42 - (42*(D9-1)/20)</f>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
@@ -1728,11 +1719,11 @@
         <v>4</v>
       </c>
       <c r="E10">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3">
+        <f>42 - (42*(D10-1)/21)</f>
         <v>36</v>
-      </c>
-      <c r="F10" s="3">
-        <f>36 - (36*(D10-1)/21)</f>
-        <v>30.857142857142858</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
@@ -1743,11 +1734,11 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3">
-        <f>36 - (36*(D11-1)/20)</f>
-        <v>28.8</v>
+        <f>42 - (42*(D11-1)/20)</f>
+        <v>33.6</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
@@ -1758,11 +1749,11 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
-        <f>36 - (36*(D12-1)/20)</f>
-        <v>27</v>
+        <f>42 - (42*(D12-1)/20)</f>
+        <v>31.5</v>
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
@@ -1772,12 +1763,9 @@
       <c r="D13" s="2">
         <v>7</v>
       </c>
-      <c r="E13">
-        <v>36</v>
-      </c>
       <c r="F13" s="3">
-        <f>36 - (36*(D13-1)/20)</f>
-        <v>25.2</v>
+        <f>42 - (42*(D13-1)/20)</f>
+        <v>29.4</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
@@ -1787,12 +1775,9 @@
       <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>36</v>
-      </c>
       <c r="F14" s="3">
-        <f>36 - (36*(D14-1)/20)</f>
-        <v>23.4</v>
+        <f>42 - (42*(D14-1)/20)</f>
+        <v>27.3</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
@@ -1802,12 +1787,9 @@
       <c r="D15" s="2">
         <v>9</v>
       </c>
-      <c r="E15">
-        <v>36</v>
-      </c>
       <c r="F15" s="3">
-        <f>36 - (36*(D15-1)/20)</f>
-        <v>21.6</v>
+        <f>42 - (42*(D15-1)/20)</f>
+        <v>25.2</v>
       </c>
       <c r="T15" t="s">
         <v>4</v>
@@ -1821,8 +1803,8 @@
         <v>10</v>
       </c>
       <c r="F16" s="3">
-        <f>36 - (36*(D16-1)/20)</f>
-        <v>19.8</v>
+        <f>42 - (42*(D16-1)/20)</f>
+        <v>23.1</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -1833,8 +1815,8 @@
         <v>11</v>
       </c>
       <c r="F17" s="3">
-        <f>36 - (36*(D17-1)/20)</f>
-        <v>18</v>
+        <f>42 - (42*(D17-1)/20)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -1845,8 +1827,8 @@
         <v>12</v>
       </c>
       <c r="F18" s="3">
-        <f>36 - (36*(D18-1)/20)</f>
-        <v>16.2</v>
+        <f>42 - (42*(D18-1)/20)</f>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -1857,8 +1839,8 @@
         <v>13</v>
       </c>
       <c r="F19" s="3">
-        <f>36 - (36*(D19-1)/20)</f>
-        <v>14.399999999999999</v>
+        <f>42 - (42*(D19-1)/20)</f>
+        <v>16.8</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
@@ -1869,8 +1851,8 @@
         <v>14</v>
       </c>
       <c r="F20" s="3">
-        <f>36 - (36*(D20-1)/20)</f>
-        <v>12.600000000000001</v>
+        <f>42 - (42*(D20-1)/20)</f>
+        <v>14.7</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
@@ -1881,8 +1863,8 @@
         <v>15</v>
       </c>
       <c r="F21" s="3">
-        <f>36 - (36*(D21-1)/20)</f>
-        <v>10.8</v>
+        <f>42 - (42*(D21-1)/20)</f>
+        <v>12.600000000000001</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
@@ -1893,8 +1875,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <f>36 - (36*(D22-1)/20)</f>
-        <v>9</v>
+        <f>42 - (42*(D22-1)/20)</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
@@ -1905,8 +1887,8 @@
         <v>17</v>
       </c>
       <c r="F23" s="3">
-        <f>36 - (36*(D23-1)/20)</f>
-        <v>7.1999999999999993</v>
+        <f>42 - (42*(D23-1)/20)</f>
+        <v>8.3999999999999986</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
@@ -1917,8 +1899,8 @@
         <v>18</v>
       </c>
       <c r="F24" s="3">
-        <f>36 - (36*(D24-1)/20)</f>
-        <v>5.3999999999999986</v>
+        <f>42 - (42*(D24-1)/20)</f>
+        <v>6.2999999999999972</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
@@ -1929,8 +1911,8 @@
         <v>19</v>
       </c>
       <c r="F25" s="3">
-        <f>36 - (36*(D25-1)/20)</f>
-        <v>3.6000000000000014</v>
+        <f>42 - (42*(D25-1)/20)</f>
+        <v>4.2000000000000028</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
@@ -1941,8 +1923,8 @@
         <v>20</v>
       </c>
       <c r="F26" s="3">
-        <f>36 - (36*(D26-1)/20)</f>
-        <v>1.7999999999999972</v>
+        <f>42 - (42*(D26-1)/20)</f>
+        <v>2.1000000000000014</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
@@ -1953,7 +1935,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="3">
-        <f>36 - (36*(D27-1)/20)</f>
+        <f>42 - (42*(D27-1)/20)</f>
         <v>0</v>
       </c>
     </row>
